--- a/Surveys/2023/03_24_2023_Tracer_Survey.xlsx
+++ b/Surveys/2023/03_24_2023_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\surveys\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5EB87-8E68-4589-B9D7-3C257680BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB74D6D7-5C09-4216-924A-8320362597D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B55ECB15-AC2D-4BB8-9DED-A760F1C0C7A2}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{B55ECB15-AC2D-4BB8-9DED-A760F1C0C7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +160,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -416,6 +429,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,18 +460,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -762,54 +778,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B049B-A9CB-400C-A422-2622B585C781}">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P135" sqref="P135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -823,41 +839,41 @@
         <v>10</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -871,8 +887,8 @@
         <v>2.56</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -883,7 +899,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>30</v>
       </c>
@@ -897,8 +913,8 @@
         <v>1.7</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -909,7 +925,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>25</v>
       </c>
@@ -925,8 +941,8 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -937,7 +953,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>54</v>
       </c>
@@ -953,8 +969,8 @@
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -965,7 +981,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>87</v>
       </c>
@@ -979,8 +995,8 @@
         <v>1.21</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -991,7 +1007,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1023,8 @@
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -1019,7 +1035,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1035,8 +1051,8 @@
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1047,16 +1063,16 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1067,7 +1083,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1081,8 +1097,8 @@
         <v>2.1</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1093,7 +1109,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>88</v>
       </c>
@@ -1107,8 +1123,8 @@
         <v>2.17</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1119,7 +1135,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>24</v>
       </c>
@@ -1133,8 +1149,8 @@
         <v>1.24</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1145,7 +1161,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>38</v>
       </c>
@@ -1159,8 +1175,8 @@
         <v>1.37</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1171,7 +1187,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>72</v>
       </c>
@@ -1185,8 +1201,8 @@
         <v>2</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1197,7 +1213,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>67</v>
       </c>
@@ -1211,8 +1227,8 @@
         <v>1.77</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1223,7 +1239,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>82</v>
       </c>
@@ -1237,8 +1253,8 @@
         <v>2.48</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1249,7 +1265,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1265,8 +1281,8 @@
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -1277,7 +1293,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>7</v>
       </c>
@@ -1291,8 +1307,8 @@
         <v>1.33</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="6"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -1303,7 +1319,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>113</v>
       </c>
@@ -1317,8 +1333,8 @@
         <v>2</v>
       </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1329,7 +1345,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42</v>
       </c>
@@ -1343,8 +1359,8 @@
         <v>2</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1355,7 +1371,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -1369,8 +1385,8 @@
         <v>2</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1381,7 +1397,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44</v>
       </c>
@@ -1395,8 +1411,8 @@
         <v>1.44</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1407,7 +1423,7 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>105</v>
       </c>
@@ -1421,8 +1437,8 @@
         <v>2.29</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1433,7 +1449,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>99</v>
       </c>
@@ -1449,8 +1465,8 @@
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -1461,7 +1477,7 @@
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -1475,8 +1491,8 @@
         <v>1.8</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -1487,7 +1503,7 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>16</v>
       </c>
@@ -1501,8 +1517,8 @@
         <v>2.79</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -1513,7 +1529,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>112</v>
       </c>
@@ -1527,8 +1543,8 @@
         <v>0.88</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -1539,7 +1555,7 @@
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>33</v>
       </c>
@@ -1553,8 +1569,8 @@
         <v>1.85</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -1565,7 +1581,7 @@
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>117</v>
       </c>
@@ -1579,8 +1595,8 @@
         <v>2.1</v>
       </c>
       <c r="E30" s="16"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -1591,7 +1607,7 @@
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>26</v>
       </c>
@@ -1605,8 +1621,8 @@
         <v>2.08</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -1617,7 +1633,7 @@
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>55</v>
       </c>
@@ -1631,8 +1647,8 @@
         <v>1.87</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -1643,7 +1659,7 @@
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -1657,8 +1673,8 @@
         <v>0.47</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -1669,7 +1685,7 @@
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>59</v>
       </c>
@@ -1683,8 +1699,8 @@
         <v>2</v>
       </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -1695,7 +1711,7 @@
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>57</v>
       </c>
@@ -1709,8 +1725,8 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -1721,7 +1737,7 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>104</v>
       </c>
@@ -1735,8 +1751,8 @@
         <v>1.52</v>
       </c>
       <c r="E36" s="16"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -1747,7 +1763,7 @@
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>71</v>
       </c>
@@ -1761,8 +1777,8 @@
         <v>2</v>
       </c>
       <c r="E37" s="16"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -1773,7 +1789,7 @@
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>51</v>
       </c>
@@ -1787,8 +1803,8 @@
         <v>2.72</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -1799,7 +1815,7 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>80</v>
       </c>
@@ -1813,8 +1829,8 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -1825,7 +1841,7 @@
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>63</v>
       </c>
@@ -1839,8 +1855,8 @@
         <v>1.31</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
@@ -1851,22 +1867,22 @@
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>50</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>1050</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -1877,22 +1893,22 @@
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>26</v>
-      </c>
-      <c r="B42" s="6">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>1026</v>
+      </c>
+      <c r="B42" s="25">
         <v>1.67</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="25">
         <v>1.36</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="25">
         <v>1.96</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -1903,22 +1919,22 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>55</v>
-      </c>
-      <c r="B43" s="6">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>1055</v>
+      </c>
+      <c r="B43" s="25">
         <v>0.81</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="25">
         <v>0.46</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="25">
         <v>1.26</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -1929,22 +1945,22 @@
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>37</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="6" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>1037</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="16"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -1955,7 +1971,7 @@
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>127</v>
       </c>
@@ -1969,8 +1985,8 @@
         <v>2</v>
       </c>
       <c r="E45" s="16"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -1981,7 +1997,7 @@
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>134</v>
       </c>
@@ -1995,8 +2011,8 @@
         <v>1.22</v>
       </c>
       <c r="E46" s="16"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -2007,7 +2023,7 @@
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>79</v>
       </c>
@@ -2021,8 +2037,8 @@
         <v>0.75</v>
       </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -2033,22 +2049,22 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
-        <v>17</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>1017</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="16"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -2059,22 +2075,22 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>36</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>1036</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="25">
         <v>0.47</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="25">
         <v>1.03</v>
       </c>
       <c r="E49" s="16"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -2085,22 +2101,22 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
-        <v>44</v>
-      </c>
-      <c r="B50" s="6">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>1044</v>
+      </c>
+      <c r="B50" s="25">
         <v>0.95</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="25">
         <v>0.45</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="25">
         <v>0.47</v>
       </c>
       <c r="E50" s="16"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -2111,22 +2127,22 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>65</v>
-      </c>
-      <c r="B51" s="6">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>1065</v>
+      </c>
+      <c r="B51" s="25">
         <v>1.51</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="25">
         <v>0.93</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="25">
         <v>1.2</v>
       </c>
       <c r="E51" s="16"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -2137,16 +2153,16 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -2157,7 +2173,7 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>6</v>
       </c>
@@ -2171,8 +2187,8 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -2183,7 +2199,7 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>92</v>
       </c>
@@ -2197,8 +2213,8 @@
         <v>0.83</v>
       </c>
       <c r="E54" s="16"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -2209,7 +2225,7 @@
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>96</v>
       </c>
@@ -2223,8 +2239,8 @@
         <v>0.47</v>
       </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -2235,7 +2251,7 @@
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>12</v>
       </c>
@@ -2249,8 +2265,8 @@
         <v>0.68</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
@@ -2261,7 +2277,7 @@
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>125</v>
       </c>
@@ -2275,8 +2291,8 @@
         <v>0.8</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
@@ -2287,7 +2303,7 @@
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>68</v>
       </c>
@@ -2301,8 +2317,8 @@
         <v>0.92</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -2313,7 +2329,7 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>86</v>
       </c>
@@ -2327,8 +2343,8 @@
         <v>0.85</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -2339,7 +2355,7 @@
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>126</v>
       </c>
@@ -2353,8 +2369,8 @@
         <v>0.74</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -2365,7 +2381,7 @@
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>77</v>
       </c>
@@ -2379,8 +2395,8 @@
         <v>0.38</v>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -2391,7 +2407,7 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>76</v>
       </c>
@@ -2405,8 +2421,8 @@
         <v>0.32</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -2417,7 +2433,7 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>69</v>
       </c>
@@ -2431,8 +2447,8 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -2443,7 +2459,7 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>74</v>
       </c>
@@ -2457,8 +2473,8 @@
         <v>0.32</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -2469,22 +2485,22 @@
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>28</v>
-      </c>
-      <c r="B65" s="6">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>1028</v>
+      </c>
+      <c r="B65" s="25">
         <v>1.23</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="25">
         <v>1.18</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="25">
         <v>0.76</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -2495,41 +2511,41 @@
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26" t="s">
+      <c r="G67" s="31"/>
+      <c r="H67" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26" t="s">
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -2543,41 +2559,41 @@
         <v>17</v>
       </c>
       <c r="E68" s="16"/>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H68" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I68" s="28" t="s">
+      <c r="I68" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K68" s="28" t="s">
+      <c r="K68" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L68" s="28" t="s">
+      <c r="L68" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M68" s="28" t="s">
+      <c r="M68" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N68" s="28" t="s">
+      <c r="N68" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O68" s="28" t="s">
+      <c r="O68" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P68" s="28" t="s">
+      <c r="P68" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>22</v>
       </c>
@@ -2591,8 +2607,8 @@
         <v>2</v>
       </c>
       <c r="E69" s="16"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -2603,7 +2619,7 @@
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>114</v>
       </c>
@@ -2619,8 +2635,8 @@
       <c r="E70" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -2631,7 +2647,7 @@
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>90</v>
       </c>
@@ -2645,8 +2661,8 @@
         <v>0.95</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -2657,7 +2673,7 @@
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>19</v>
       </c>
@@ -2671,8 +2687,8 @@
         <v>1.06</v>
       </c>
       <c r="E72" s="16"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -2683,7 +2699,7 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>106</v>
       </c>
@@ -2697,8 +2713,8 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="E73" s="16"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
@@ -2709,7 +2725,7 @@
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>49</v>
       </c>
@@ -2723,8 +2739,8 @@
         <v>1.26</v>
       </c>
       <c r="E74" s="16"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
@@ -2735,7 +2751,7 @@
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>128</v>
       </c>
@@ -2749,8 +2765,8 @@
         <v>1.64</v>
       </c>
       <c r="E75" s="16"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
@@ -2761,7 +2777,7 @@
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>47</v>
       </c>
@@ -2775,8 +2791,8 @@
         <v>0.63000000000000012</v>
       </c>
       <c r="E76" s="16"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
@@ -2787,7 +2803,7 @@
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>39</v>
       </c>
@@ -2801,8 +2817,8 @@
         <v>1.03</v>
       </c>
       <c r="E77" s="16"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="29"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
@@ -2813,7 +2829,7 @@
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>120</v>
       </c>
@@ -2827,8 +2843,8 @@
         <v>2</v>
       </c>
       <c r="E78" s="16"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
@@ -2839,7 +2855,7 @@
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>60</v>
       </c>
@@ -2853,8 +2869,8 @@
         <v>2</v>
       </c>
       <c r="E79" s="16"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
@@ -2865,7 +2881,7 @@
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>130</v>
       </c>
@@ -2879,8 +2895,8 @@
         <v>2</v>
       </c>
       <c r="E80" s="16"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
@@ -2891,7 +2907,7 @@
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>123</v>
       </c>
@@ -2905,8 +2921,8 @@
         <v>2</v>
       </c>
       <c r="E81" s="16"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
@@ -2917,7 +2933,7 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>124</v>
       </c>
@@ -2933,8 +2949,8 @@
       <c r="E82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
@@ -2945,7 +2961,7 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>81</v>
       </c>
@@ -2959,8 +2975,8 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E83" s="16"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
@@ -2971,9 +2987,9 @@
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>6</v>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>1006</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>2</v>
@@ -2985,8 +3001,8 @@
         <v>2</v>
       </c>
       <c r="E84" s="16"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
@@ -2997,9 +3013,9 @@
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>11</v>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>1011</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>2</v>
@@ -3011,8 +3027,8 @@
         <v>2</v>
       </c>
       <c r="E85" s="16"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
       <c r="H85" s="6"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
@@ -3023,9 +3039,9 @@
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>48</v>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>1048</v>
       </c>
       <c r="B86" s="6">
         <v>3.06</v>
@@ -3037,8 +3053,8 @@
         <v>0.76</v>
       </c>
       <c r="E86" s="16"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
@@ -3049,9 +3065,9 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>62</v>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>1062</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>2</v>
@@ -3063,8 +3079,8 @@
         <v>2</v>
       </c>
       <c r="E87" s="16"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
@@ -3075,18 +3091,18 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
@@ -3097,7 +3113,7 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>11</v>
       </c>
@@ -3111,8 +3127,8 @@
         <v>2.5500000000000003</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
@@ -3123,7 +3139,7 @@
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>35</v>
       </c>
@@ -3137,8 +3153,8 @@
         <v>1.8</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
@@ -3149,7 +3165,7 @@
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>91</v>
       </c>
@@ -3165,8 +3181,8 @@
       <c r="E91" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
@@ -3177,7 +3193,7 @@
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>121</v>
       </c>
@@ -3191,8 +3207,8 @@
         <v>2.2600000000000002</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
@@ -3203,7 +3219,7 @@
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>46</v>
       </c>
@@ -3217,8 +3233,8 @@
         <v>2.46</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
@@ -3229,24 +3245,24 @@
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>51</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="6" t="s">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>1051</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
@@ -3257,22 +3273,22 @@
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>42</v>
-      </c>
-      <c r="B95" s="6">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>1042</v>
+      </c>
+      <c r="B95" s="25">
         <v>1.45</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="25">
         <v>1.3299999999999998</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="25">
         <v>2.3800000000000003</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
@@ -3283,7 +3299,7 @@
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>131</v>
       </c>
@@ -3297,8 +3313,8 @@
         <v>2.1900000000000004</v>
       </c>
       <c r="E96" s="6"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
@@ -3309,7 +3325,7 @@
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>75</v>
       </c>
@@ -3323,8 +3339,8 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
@@ -3335,22 +3351,22 @@
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>47</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="6" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <v>1047</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
@@ -3361,7 +3377,7 @@
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>40</v>
       </c>
@@ -3375,8 +3391,8 @@
         <v>1.9999999999999998</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
@@ -3387,7 +3403,7 @@
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>118</v>
       </c>
@@ -3401,8 +3417,8 @@
         <v>2.0300000000000002</v>
       </c>
       <c r="E100" s="6"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
@@ -3413,37 +3429,37 @@
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="26" t="s">
+      <c r="F102" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26" t="s">
+      <c r="G102" s="31"/>
+      <c r="H102" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26" t="s">
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
@@ -3459,41 +3475,41 @@
       <c r="E103" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G103" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="H103" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I103" s="28" t="s">
+      <c r="I103" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J103" s="28" t="s">
+      <c r="J103" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K103" s="28" t="s">
+      <c r="K103" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L103" s="28" t="s">
+      <c r="L103" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M103" s="28" t="s">
+      <c r="M103" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N103" s="28" t="s">
+      <c r="N103" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O103" s="28" t="s">
+      <c r="O103" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P103" s="28" t="s">
+      <c r="P103" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>8</v>
       </c>
@@ -3507,8 +3523,8 @@
         <v>2</v>
       </c>
       <c r="E104" s="16"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
@@ -3519,7 +3535,7 @@
       <c r="O104" s="16"/>
       <c r="P104" s="16"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>2</v>
       </c>
@@ -3533,8 +3549,8 @@
         <v>2</v>
       </c>
       <c r="E105" s="16"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
@@ -3545,7 +3561,7 @@
       <c r="O105" s="16"/>
       <c r="P105" s="16"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>43</v>
       </c>
@@ -3559,8 +3575,8 @@
         <v>2</v>
       </c>
       <c r="E106" s="16"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
@@ -3571,7 +3587,7 @@
       <c r="O106" s="16"/>
       <c r="P106" s="16"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>15</v>
       </c>
@@ -3585,8 +3601,8 @@
         <v>2</v>
       </c>
       <c r="E107" s="16"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
@@ -3597,7 +3613,7 @@
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>94</v>
       </c>
@@ -3611,8 +3627,8 @@
         <v>2</v>
       </c>
       <c r="E108" s="16"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -3623,7 +3639,7 @@
       <c r="O108" s="16"/>
       <c r="P108" s="16"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>95</v>
       </c>
@@ -3637,8 +3653,8 @@
         <v>2</v>
       </c>
       <c r="E109" s="16"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
@@ -3649,7 +3665,7 @@
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -3663,8 +3679,8 @@
         <v>2</v>
       </c>
       <c r="E110" s="16"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
@@ -3675,7 +3691,7 @@
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>66</v>
       </c>
@@ -3689,8 +3705,8 @@
         <v>2</v>
       </c>
       <c r="E111" s="16"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
@@ -3701,7 +3717,7 @@
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>73</v>
       </c>
@@ -3715,8 +3731,8 @@
         <v>2</v>
       </c>
       <c r="E112" s="16"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
@@ -3727,7 +3743,7 @@
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>129</v>
       </c>
@@ -3741,8 +3757,8 @@
         <v>2</v>
       </c>
       <c r="E113" s="16"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
@@ -3753,7 +3769,7 @@
       <c r="O113" s="16"/>
       <c r="P113" s="16"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>70</v>
       </c>
@@ -3767,8 +3783,8 @@
         <v>2</v>
       </c>
       <c r="E114" s="16"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
       <c r="J114" s="16"/>
@@ -3779,7 +3795,7 @@
       <c r="O114" s="16"/>
       <c r="P114" s="16"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>58</v>
       </c>
@@ -3793,8 +3809,8 @@
         <v>2</v>
       </c>
       <c r="E115" s="16"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
@@ -3805,7 +3821,7 @@
       <c r="O115" s="16"/>
       <c r="P115" s="16"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>136</v>
       </c>
@@ -3819,8 +3835,8 @@
         <v>2</v>
       </c>
       <c r="E116" s="16"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
@@ -3831,9 +3847,9 @@
       <c r="O116" s="16"/>
       <c r="P116" s="16"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
-        <v>39</v>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="25">
+        <v>1039</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>2</v>
@@ -3845,8 +3861,8 @@
         <v>2</v>
       </c>
       <c r="E117" s="16"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
@@ -3857,9 +3873,9 @@
       <c r="O117" s="16"/>
       <c r="P117" s="16"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
-        <v>5</v>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="25">
+        <v>1005</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>2</v>
@@ -3871,8 +3887,8 @@
         <v>2</v>
       </c>
       <c r="E118" s="16"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
@@ -3883,9 +3899,9 @@
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
-        <v>31</v>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="25">
+        <v>1031</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>2</v>
@@ -3897,8 +3913,8 @@
         <v>2</v>
       </c>
       <c r="E119" s="16"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
@@ -3909,9 +3925,9 @@
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
-        <v>10</v>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="25">
+        <v>1010</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>2</v>
@@ -3923,8 +3939,8 @@
         <v>2</v>
       </c>
       <c r="E120" s="16"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
       <c r="J120" s="16"/>
@@ -3935,37 +3951,37 @@
       <c r="O120" s="16"/>
       <c r="P120" s="16"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="23"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="28"/>
       <c r="E122" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="26" t="s">
+      <c r="F122" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26" t="s">
+      <c r="G122" s="31"/>
+      <c r="H122" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26" t="s">
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N122" s="31"/>
+      <c r="O122" s="31"/>
+      <c r="P122" s="31"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -3979,41 +3995,41 @@
         <v>28</v>
       </c>
       <c r="E123" s="6"/>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G123" s="27" t="s">
+      <c r="G123" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="H123" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="28" t="s">
+      <c r="I123" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J123" s="28" t="s">
+      <c r="J123" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K123" s="28" t="s">
+      <c r="K123" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L123" s="28" t="s">
+      <c r="L123" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M123" s="28" t="s">
+      <c r="M123" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N123" s="28" t="s">
+      <c r="N123" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O123" s="28" t="s">
+      <c r="O123" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P123" s="28" t="s">
+      <c r="P123" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>1</v>
       </c>
@@ -4027,8 +4043,8 @@
         <v>0.97</v>
       </c>
       <c r="E124" s="16"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
       <c r="J124" s="16"/>
@@ -4039,7 +4055,7 @@
       <c r="O124" s="16"/>
       <c r="P124" s="16"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>41</v>
       </c>
@@ -4053,8 +4069,8 @@
         <v>0.97</v>
       </c>
       <c r="E125" s="16"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16"/>
@@ -4065,7 +4081,7 @@
       <c r="O125" s="16"/>
       <c r="P125" s="16"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>17</v>
       </c>
@@ -4079,8 +4095,8 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E126" s="16"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
       <c r="H126" s="16"/>
       <c r="I126" s="16"/>
       <c r="J126" s="16"/>
@@ -4091,7 +4107,7 @@
       <c r="O126" s="16"/>
       <c r="P126" s="16"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>29</v>
       </c>
@@ -4105,8 +4121,8 @@
         <v>0.75</v>
       </c>
       <c r="E127" s="16"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
       <c r="J127" s="16"/>
@@ -4117,7 +4133,7 @@
       <c r="O127" s="16"/>
       <c r="P127" s="16"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>14</v>
       </c>
@@ -4131,8 +4147,8 @@
         <v>2</v>
       </c>
       <c r="E128" s="16"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
       <c r="J128" s="16"/>
@@ -4143,7 +4159,7 @@
       <c r="O128" s="16"/>
       <c r="P128" s="16"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>119</v>
       </c>
@@ -4157,8 +4173,8 @@
         <v>0.58000000000000007</v>
       </c>
       <c r="E129" s="16"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
       <c r="J129" s="16"/>
@@ -4169,7 +4185,7 @@
       <c r="O129" s="16"/>
       <c r="P129" s="16"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>45</v>
       </c>
@@ -4185,8 +4201,8 @@
       <c r="E130" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
       <c r="J130" s="16"/>
@@ -4197,7 +4213,7 @@
       <c r="O130" s="16"/>
       <c r="P130" s="16"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>20</v>
       </c>
@@ -4211,8 +4227,8 @@
         <v>0.6399999999999999</v>
       </c>
       <c r="E131" s="16"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
       <c r="J131" s="16"/>
@@ -4223,7 +4239,7 @@
       <c r="O131" s="16"/>
       <c r="P131" s="16"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>34</v>
       </c>
@@ -4237,8 +4253,8 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E132" s="16"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
       <c r="H132" s="16"/>
       <c r="I132" s="16"/>
       <c r="J132" s="16"/>
@@ -4249,7 +4265,7 @@
       <c r="O132" s="16"/>
       <c r="P132" s="16"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>64</v>
       </c>
@@ -4263,8 +4279,8 @@
         <v>0.6399999999999999</v>
       </c>
       <c r="E133" s="16"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
       <c r="J133" s="16"/>
@@ -4275,7 +4291,7 @@
       <c r="O133" s="16"/>
       <c r="P133" s="16"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>56</v>
       </c>
@@ -4289,8 +4305,8 @@
         <v>0.63000000000000012</v>
       </c>
       <c r="E134" s="16"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
       <c r="J134" s="16"/>
@@ -4301,7 +4317,7 @@
       <c r="O134" s="16"/>
       <c r="P134" s="16"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>78</v>
       </c>
@@ -4315,8 +4331,8 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="E135" s="16"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
@@ -4327,9 +4343,9 @@
       <c r="O135" s="16"/>
       <c r="P135" s="16"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A136" s="10">
-        <v>2</v>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="25">
+        <v>1002</v>
       </c>
       <c r="B136" s="6">
         <v>2.33</v>
@@ -4341,8 +4357,8 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="E136" s="16"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
       <c r="J136" s="16"/>
@@ -4353,9 +4369,9 @@
       <c r="O136" s="16"/>
       <c r="P136" s="16"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A137" s="10">
-        <v>14</v>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="25">
+        <v>1014</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>2</v>
@@ -4367,8 +4383,8 @@
         <v>2</v>
       </c>
       <c r="E137" s="16"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
       <c r="J137" s="16"/>
@@ -4379,9 +4395,9 @@
       <c r="O137" s="16"/>
       <c r="P137" s="16"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138" s="10">
-        <v>43</v>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="25">
+        <v>1043</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>2</v>
@@ -4393,8 +4409,8 @@
         <v>2</v>
       </c>
       <c r="E138" s="16"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
       <c r="H138" s="16"/>
       <c r="I138" s="16"/>
       <c r="J138" s="16"/>
@@ -4405,9 +4421,9 @@
       <c r="O138" s="16"/>
       <c r="P138" s="16"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A139" s="10">
-        <v>58</v>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="25">
+        <v>1058</v>
       </c>
       <c r="B139" s="6">
         <v>1.97</v>
@@ -4419,8 +4435,8 @@
         <v>2</v>
       </c>
       <c r="E139" s="16"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
       <c r="J139" s="16"/>
@@ -4431,18 +4447,18 @@
       <c r="O139" s="16"/>
       <c r="P139" s="16"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A140" s="24" t="s">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
       <c r="E140" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
       <c r="H140" s="16"/>
       <c r="I140" s="16"/>
       <c r="J140" s="16"/>
@@ -4453,9 +4469,9 @@
       <c r="O140" s="16"/>
       <c r="P140" s="16"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B141" s="6">
         <v>1.7499999999999998</v>
@@ -4467,8 +4483,8 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="E141" s="16"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16"/>
@@ -4479,7 +4495,7 @@
       <c r="O141" s="16"/>
       <c r="P141" s="16"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>111</v>
       </c>
@@ -4493,8 +4509,8 @@
         <v>0.72</v>
       </c>
       <c r="E142" s="16"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
       <c r="J142" s="16"/>
@@ -4505,7 +4521,7 @@
       <c r="O142" s="16"/>
       <c r="P142" s="16"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>97</v>
       </c>
@@ -4519,8 +4535,8 @@
         <v>1.9799999999999998</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16"/>
@@ -4531,7 +4547,7 @@
       <c r="O143" s="16"/>
       <c r="P143" s="16"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>37</v>
       </c>
@@ -4545,8 +4561,8 @@
         <v>2.3800000000000003</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
       <c r="J144" s="16"/>
@@ -4557,7 +4573,7 @@
       <c r="O144" s="16"/>
       <c r="P144" s="16"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>108</v>
       </c>
@@ -4571,8 +4587,8 @@
         <v>1.74</v>
       </c>
       <c r="E145" s="6"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16"/>
@@ -4583,7 +4599,7 @@
       <c r="O145" s="16"/>
       <c r="P145" s="16"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>89</v>
       </c>
@@ -4597,8 +4613,8 @@
         <v>0.90999999999999992</v>
       </c>
       <c r="E146" s="16"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
       <c r="H146" s="16"/>
       <c r="I146" s="16"/>
       <c r="J146" s="16"/>
@@ -4609,9 +4625,9 @@
       <c r="O146" s="16"/>
       <c r="P146" s="16"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B147" s="6">
         <v>1.6099999999999999</v>
@@ -4623,8 +4639,8 @@
         <v>0.8</v>
       </c>
       <c r="E147" s="16"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16"/>
@@ -4635,7 +4651,7 @@
       <c r="O147" s="16"/>
       <c r="P147" s="16"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>102</v>
       </c>
@@ -4649,8 +4665,8 @@
         <v>0.76</v>
       </c>
       <c r="E148" s="16"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
       <c r="J148" s="16"/>
@@ -4661,7 +4677,7 @@
       <c r="O148" s="16"/>
       <c r="P148" s="16"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>116</v>
       </c>
@@ -4675,8 +4691,8 @@
         <v>0.7</v>
       </c>
       <c r="E149" s="16"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16"/>
@@ -4687,7 +4703,7 @@
       <c r="O149" s="16"/>
       <c r="P149" s="16"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>122</v>
       </c>
@@ -4701,8 +4717,8 @@
         <v>0.92999999999999994</v>
       </c>
       <c r="E150" s="16"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
       <c r="H150" s="16"/>
       <c r="I150" s="16"/>
       <c r="J150" s="16"/>
@@ -4713,7 +4729,7 @@
       <c r="O150" s="16"/>
       <c r="P150" s="16"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>135</v>
       </c>
@@ -4727,8 +4743,8 @@
         <v>0.73</v>
       </c>
       <c r="E151" s="16"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16"/>
